--- a/Week4/W4D1.xlsx
+++ b/Week4/W4D1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{77F14CA7-1FF3-4A52-B900-B6FFB57496F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C037BEBD-81D3-40CE-80AB-B0244AD99A3C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04170E5A-A79B-4F7F-8876-A0A4834C79B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esercizio 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>gennaio</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>Media (conta.numeri)</t>
+  </si>
+  <si>
+    <t>Elenco mail</t>
+  </si>
+  <si>
+    <t>Utilizzo CODICE.CARATT</t>
+  </si>
+  <si>
+    <t>Nome_2</t>
   </si>
 </sst>
 </file>
@@ -243,7 +252,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +268,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +333,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -327,9 +354,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -357,7 +381,29 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -723,13 +769,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1177,10 +1223,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I17"/>
+  <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,13 +1244,13 @@
   <sheetData>
     <row r="2" spans="2:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2"/>
@@ -1214,236 +1260,352 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>3400</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>2770</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>2300</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <f>C3+D3+E3</f>
         <v>8470</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <f>(C3+D3+E3)/3</f>
         <v>2823.3333333333335</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <f>C3+D3+E3/COUNT(C3:E3)</f>
         <v>6936.666666666667</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>3210</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>2450</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>2600</v>
       </c>
-      <c r="G4" s="10">
-        <f t="shared" ref="G4:G7" si="0">C4+D4+E4</f>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G14" si="0">C4+D4+E4</f>
         <v>8260</v>
       </c>
-      <c r="H4" s="10">
-        <f t="shared" ref="H4:H7" si="1">(C4+D4+E4)/3</f>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H14" si="1">(C4+D4+E4)/3</f>
         <v>2753.3333333333335</v>
       </c>
-      <c r="I4" s="10">
-        <f t="shared" ref="I4:I7" si="2">C4+D4+E4/COUNT(C4:E4)</f>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I14" si="2">C4+D4+E4/COUNT(C4:E4)</f>
         <v>6526.666666666667</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>3100</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>2345</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>2345</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
         <v>7790</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <f t="shared" si="1"/>
         <v>2596.6666666666665</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <f t="shared" si="2"/>
         <v>6226.666666666667</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>3150</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>2324</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>2320</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
         <v>7794</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <f t="shared" si="1"/>
         <v>2598</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <f t="shared" si="2"/>
         <v>6247.333333333333</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>3230</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>2431</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>2500</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>8161</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <f t="shared" si="1"/>
         <v>2720.3333333333335</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <f t="shared" si="2"/>
         <v>6494.333333333333</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="C8" s="24">
+        <v>3098</v>
+      </c>
+      <c r="D8" s="24">
+        <v>2222.8000000000002</v>
+      </c>
+      <c r="E8" s="24">
+        <v>2449</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="24">
+        <f t="shared" si="0"/>
+        <v>7769.8</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="1"/>
+        <v>2589.9333333333334</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="2"/>
+        <v>6137.1333333333332</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="C9" s="24">
+        <v>3058</v>
+      </c>
+      <c r="D9" s="24">
+        <v>2142.4</v>
+      </c>
+      <c r="E9" s="24">
+        <v>2461</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24">
+        <f t="shared" si="0"/>
+        <v>7661.4</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="1"/>
+        <v>2553.7999999999997</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="2"/>
+        <v>6020.7333333333327</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="C10" s="24">
+        <v>3018</v>
+      </c>
+      <c r="D10" s="24">
+        <v>2062</v>
+      </c>
+      <c r="E10" s="24">
+        <v>2473</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="24">
+        <f t="shared" si="0"/>
+        <v>7553</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="1"/>
+        <v>2517.6666666666665</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="2"/>
+        <v>5904.333333333333</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="C11" s="24">
+        <v>2978</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1981.6</v>
+      </c>
+      <c r="E11" s="24">
+        <v>2485</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="24">
+        <f t="shared" si="0"/>
+        <v>7444.6</v>
+      </c>
+      <c r="H11" s="24">
+        <f t="shared" si="1"/>
+        <v>2481.5333333333333</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="2"/>
+        <v>5787.9333333333334</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="C12" s="24">
+        <v>2938</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1901.2</v>
+      </c>
+      <c r="E12" s="24">
+        <v>2497</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24">
+        <f t="shared" si="0"/>
+        <v>7336.2</v>
+      </c>
+      <c r="H12" s="24">
+        <f t="shared" si="1"/>
+        <v>2445.4</v>
+      </c>
+      <c r="I12" s="24">
+        <f t="shared" si="2"/>
+        <v>5671.5333333333328</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="C13" s="24">
+        <v>2898</v>
+      </c>
+      <c r="D13" s="24">
+        <v>1820.8</v>
+      </c>
+      <c r="E13" s="24">
+        <v>2509</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="24">
+        <f t="shared" si="0"/>
+        <v>7227.8</v>
+      </c>
+      <c r="H13" s="24">
+        <f t="shared" si="1"/>
+        <v>2409.2666666666669</v>
+      </c>
+      <c r="I13" s="24">
+        <f t="shared" si="2"/>
+        <v>5555.1333333333332</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="C14" s="24">
+        <v>2858</v>
+      </c>
+      <c r="D14" s="24">
+        <v>1740.4</v>
+      </c>
+      <c r="E14" s="24">
+        <v>2521</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="24">
+        <f t="shared" si="0"/>
+        <v>7119.4</v>
+      </c>
+      <c r="H14" s="24">
+        <f t="shared" si="1"/>
+        <v>2373.1333333333332</v>
+      </c>
+      <c r="I14" s="24">
+        <f t="shared" si="2"/>
+        <v>5438.7333333333327</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <f>SUM(C3:C7)</f>
         <v>16090</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <f>SUM(D3:D7)</f>
         <v>12320</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <f>SUM(E3:E7)</f>
         <v>12065</v>
       </c>
@@ -1452,17 +1614,51 @@
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <f>AVERAGE(C3:C7)</f>
         <v>3218</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <f t="shared" ref="D17:E17" si="3">AVERAGE(D3:D7)</f>
         <v>2464</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <f t="shared" si="3"/>
         <v>2413</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="18">
+        <f>SUM(C6:C14)</f>
+        <v>27226</v>
+      </c>
+      <c r="D19" s="18">
+        <f>SUM(D6:D14)</f>
+        <v>18626.200000000004</v>
+      </c>
+      <c r="E19" s="18">
+        <f>SUM(E6:E14)</f>
+        <v>22215</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="18">
+        <f>AVERAGE(C6:C14)</f>
+        <v>3025.1111111111113</v>
+      </c>
+      <c r="D20" s="18">
+        <f>AVERAGE(D6:D14)</f>
+        <v>2069.5777777777785</v>
+      </c>
+      <c r="E20" s="18">
+        <f>AVERAGE(E6:E14)</f>
+        <v>2468.3333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +1676,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1492,338 +1688,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="14" t="str">
+      <c r="D2" s="13" t="str">
         <f>LOWER((LEFT(B2,1))&amp;"."&amp;LOWER( SUBSTITUTE(A2," ",""))&amp;"@"&amp;IF(C2="Verona","vr","vi")&amp;".azienda.it")</f>
         <v>l.derossi@vr.azienda.it</v>
       </c>
-      <c r="E2" s="15" t="str">
+      <c r="E2" s="14" t="str">
         <f>_xlfn.CONCAT(F2,".",G2,"@",H2,".azienda.it")</f>
         <v>l.derossi@vr.azienda.it</v>
       </c>
-      <c r="F2" s="15" t="str">
+      <c r="F2" s="14" t="str">
         <f>LOWER((LEFT(B2,1)))</f>
         <v>l</v>
       </c>
-      <c r="G2" s="15" t="str">
+      <c r="G2" s="14" t="str">
         <f xml:space="preserve">  LOWER(SUBSTITUTE(A2," ", ""))</f>
         <v>derossi</v>
       </c>
-      <c r="H2" s="15" t="str">
+      <c r="H2" s="14" t="str">
         <f>IF(C2="Verona","vr","vi")</f>
         <v>vr</v>
       </c>
-      <c r="N2" s="13"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="14" t="str">
+      <c r="D3" s="13" t="str">
         <f t="shared" ref="D3:D11" si="0">LOWER((LEFT(B3,1))&amp;"."&amp;LOWER( SUBSTITUTE(A3," ",""))&amp;"@"&amp;IF(C3="Verona","vr","vi")&amp;".azienda.it")</f>
         <v>f.rossi@vi.azienda.it</v>
       </c>
-      <c r="E3" s="15" t="str">
+      <c r="E3" s="14" t="str">
         <f t="shared" ref="E3:E11" si="1">_xlfn.CONCAT(F3,".",G3,"@",H3,".azienda.it")</f>
         <v>f.rossi@vi.azienda.it</v>
       </c>
-      <c r="F3" s="15" t="str">
+      <c r="F3" s="14" t="str">
         <f t="shared" ref="F3:F11" si="2">LOWER((LEFT(B3,1)))</f>
         <v>f</v>
       </c>
-      <c r="G3" s="15" t="str">
+      <c r="G3" s="14" t="str">
         <f t="shared" ref="G3:G11" si="3" xml:space="preserve">  LOWER(SUBSTITUTE(A3," ", ""))</f>
         <v>rossi</v>
       </c>
-      <c r="H3" s="15" t="str">
+      <c r="H3" s="14" t="str">
         <f t="shared" ref="H3:H11" si="4">IF(C3="Verona","vr","vi")</f>
         <v>vi</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="14" t="str">
+      <c r="D4" s="13" t="str">
         <f t="shared" si="0"/>
         <v>a.bianchi@vi.azienda.it</v>
       </c>
-      <c r="E4" s="15" t="str">
+      <c r="E4" s="14" t="str">
         <f t="shared" si="1"/>
         <v>a.bianchi@vi.azienda.it</v>
       </c>
-      <c r="F4" s="15" t="str">
+      <c r="F4" s="14" t="str">
         <f t="shared" si="2"/>
         <v>a</v>
       </c>
-      <c r="G4" s="15" t="str">
+      <c r="G4" s="14" t="str">
         <f t="shared" si="3"/>
         <v>bianchi</v>
       </c>
-      <c r="H4" s="15" t="str">
+      <c r="H4" s="14" t="str">
         <f t="shared" si="4"/>
         <v>vi</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="14" t="str">
+      <c r="D5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>m.verdi@vr.azienda.it</v>
       </c>
-      <c r="E5" s="15" t="str">
+      <c r="E5" s="14" t="str">
         <f t="shared" si="1"/>
         <v>m.verdi@vr.azienda.it</v>
       </c>
-      <c r="F5" s="15" t="str">
+      <c r="F5" s="14" t="str">
         <f t="shared" si="2"/>
         <v>m</v>
       </c>
-      <c r="G5" s="15" t="str">
+      <c r="G5" s="14" t="str">
         <f t="shared" si="3"/>
         <v>verdi</v>
       </c>
-      <c r="H5" s="15" t="str">
+      <c r="H5" s="14" t="str">
         <f t="shared" si="4"/>
         <v>vr</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="14" t="str">
+      <c r="D6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>s.neri@vi.azienda.it</v>
       </c>
-      <c r="E6" s="15" t="str">
+      <c r="E6" s="14" t="str">
         <f t="shared" si="1"/>
         <v>s.neri@vi.azienda.it</v>
       </c>
-      <c r="F6" s="15" t="str">
+      <c r="F6" s="14" t="str">
         <f t="shared" si="2"/>
         <v>s</v>
       </c>
-      <c r="G6" s="15" t="str">
+      <c r="G6" s="14" t="str">
         <f t="shared" si="3"/>
         <v>neri</v>
       </c>
-      <c r="H6" s="15" t="str">
+      <c r="H6" s="14" t="str">
         <f t="shared" si="4"/>
         <v>vi</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14" t="str">
+      <c r="D7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>a.rosa@vr.azienda.it</v>
       </c>
-      <c r="E7" s="15" t="str">
+      <c r="E7" s="14" t="str">
         <f t="shared" si="1"/>
         <v>a.rosa@vr.azienda.it</v>
       </c>
-      <c r="F7" s="15" t="str">
+      <c r="F7" s="14" t="str">
         <f t="shared" si="2"/>
         <v>a</v>
       </c>
-      <c r="G7" s="15" t="str">
+      <c r="G7" s="14" t="str">
         <f t="shared" si="3"/>
         <v>rosa</v>
       </c>
-      <c r="H7" s="15" t="str">
+      <c r="H7" s="14" t="str">
         <f t="shared" si="4"/>
         <v>vr</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="14" t="str">
+      <c r="D8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>f.derosa@vi.azienda.it</v>
       </c>
-      <c r="E8" s="15" t="str">
+      <c r="E8" s="14" t="str">
         <f t="shared" si="1"/>
         <v>f.derosa@vi.azienda.it</v>
       </c>
-      <c r="F8" s="15" t="str">
+      <c r="F8" s="14" t="str">
         <f t="shared" si="2"/>
         <v>f</v>
       </c>
-      <c r="G8" s="15" t="str">
+      <c r="G8" s="14" t="str">
         <f t="shared" si="3"/>
         <v>derosa</v>
       </c>
-      <c r="H8" s="15" t="str">
+      <c r="H8" s="14" t="str">
         <f t="shared" si="4"/>
         <v>vi</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="14" t="str">
+      <c r="D9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>p.verdini@vr.azienda.it</v>
       </c>
-      <c r="E9" s="15" t="str">
+      <c r="E9" s="14" t="str">
         <f t="shared" si="1"/>
         <v>p.verdini@vr.azienda.it</v>
       </c>
-      <c r="F9" s="15" t="str">
+      <c r="F9" s="14" t="str">
         <f t="shared" si="2"/>
         <v>p</v>
       </c>
-      <c r="G9" s="15" t="str">
+      <c r="G9" s="14" t="str">
         <f t="shared" si="3"/>
         <v>verdini</v>
       </c>
-      <c r="H9" s="15" t="str">
+      <c r="H9" s="14" t="str">
         <f t="shared" si="4"/>
         <v>vr</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="14" t="str">
+      <c r="D10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>l.rossini@vr.azienda.it</v>
       </c>
-      <c r="E10" s="15" t="str">
+      <c r="E10" s="14" t="str">
         <f t="shared" si="1"/>
         <v>l.rossini@vr.azienda.it</v>
       </c>
-      <c r="F10" s="15" t="str">
+      <c r="F10" s="14" t="str">
         <f t="shared" si="2"/>
         <v>l</v>
       </c>
-      <c r="G10" s="15" t="str">
+      <c r="G10" s="14" t="str">
         <f t="shared" si="3"/>
         <v>rossini</v>
       </c>
-      <c r="H10" s="15" t="str">
+      <c r="H10" s="14" t="str">
         <f t="shared" si="4"/>
         <v>vr</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="14" t="str">
+      <c r="D11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>a.bianconi@vr.azienda.it</v>
       </c>
-      <c r="E11" s="15" t="str">
+      <c r="E11" s="14" t="str">
         <f t="shared" si="1"/>
         <v>a.bianconi@vr.azienda.it</v>
       </c>
-      <c r="F11" s="15" t="str">
+      <c r="F11" s="14" t="str">
         <f t="shared" si="2"/>
         <v>a</v>
       </c>
-      <c r="G11" s="15" t="str">
+      <c r="G11" s="14" t="str">
         <f t="shared" si="3"/>
         <v>bianconi</v>
       </c>
-      <c r="H11" s="15" t="str">
+      <c r="H11" s="14" t="str">
         <f t="shared" si="4"/>
         <v>vr</v>
       </c>
@@ -1837,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D037741-DB0B-4F7A-BCC8-8D7F258F0327}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1850,204 +2046,265 @@
     <col min="5" max="6" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="F1" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="13" t="str">
         <f>LOWER((LEFT(B2,1))&amp;"."&amp;LOWER( SUBSTITUTE(A2," ",""))&amp;"@"&amp;LOWER(MID(D2,1,2))&amp;".azienda.it")</f>
         <v>l.derossi@ve.azienda.it</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="F2" s="20" t="str">
+        <f>B2&amp;" "&amp;A2&amp;CHAR(10)&amp;E2</f>
+        <v>Luca De Rossi
+l.derossi@ve.azienda.it</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="14" t="str">
+      <c r="E3" s="13" t="str">
         <f t="shared" ref="E3:E12" si="0">LOWER((LEFT(B3,1))&amp;"."&amp;LOWER( SUBSTITUTE(A3," ",""))&amp;"@"&amp;LOWER(MID(D3,1,2))&amp;".azienda.it")</f>
         <v>f.rossi@vi.azienda.it</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="F3" s="20" t="str">
+        <f t="shared" ref="F3:F12" si="1">B3&amp;" "&amp;A3&amp;CHAR(10)&amp;E3</f>
+        <v>Francesca Rossi
+f.rossi@vi.azienda.it</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="14" t="str">
+      <c r="E4" s="13" t="str">
         <f t="shared" si="0"/>
         <v>a.bianchi@vi.azienda.it</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="F4" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Anna Bianchi
+a.bianchi@vi.azienda.it</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="14" t="str">
+      <c r="E5" s="13" t="str">
         <f>LOWER((LEFT(B5,1))&amp;"."&amp;LOWER((LEFT(C5,1))&amp;"."&amp;LOWER(SUBSTITUTE(A5," ",""))&amp;"@"&amp;LOWER(MID(D5,1,2))&amp;".azienda.it"))</f>
         <v>m.l.verdi@ve.azienda.it</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="F5" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Maria Verdi
+m.l.verdi@ve.azienda.it</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="14" t="str">
+      <c r="E6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>s.neri@vi.azienda.it</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="F6" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Stefani Neri
+s.neri@vi.azienda.it</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="14" t="str">
+      <c r="E7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>a.rosa@ve.azienda.it</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="F7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Andre Rosa
+a.rosa@ve.azienda.it</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="14" t="str">
+      <c r="E8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>f.derosa@vi.azienda.it</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="F8" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Federica De Rosa
+f.derosa@vi.azienda.it</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="14" t="str">
+      <c r="E9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>p.verdini@ve.azienda.it</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="F9" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Paolo Verdini
+p.verdini@ve.azienda.it</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="14" t="str">
+      <c r="E10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>l.rossini@ve.azienda.it</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="F10" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Loretta Rossini
+l.rossini@ve.azienda.it</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="14" t="str">
+      <c r="E11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>a.bianconi@ve.azienda.it</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="F11" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Antonio Bianconi
+a.bianconi@ve.azienda.it</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="14" t="str">
+      <c r="E12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>s.neli@mi.azienda.it</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="17" t="s">
+      <c r="F12" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Staykova Neli
+s.neli@mi.azienda.it</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="16" t="s">
         <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Week4/W4D1.xlsx
+++ b/Week4/W4D1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04170E5A-A79B-4F7F-8876-A0A4834C79B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4371AF82-9BC8-465C-B55C-4C8951AF1D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esercizio 1" sheetId="1" r:id="rId1"/>
@@ -377,10 +377,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -404,6 +400,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1225,8 +1225,8 @@
   </sheetPr>
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1260,7 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="25" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
         <f>(C3+D3+E3)/3</f>
         <v>2823.3333333333335</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="23">
         <f>C3+D3+E3/COUNT(C3:E3)</f>
         <v>6936.666666666667</v>
       </c>
@@ -1311,7 +1311,7 @@
         <f t="shared" ref="H4:H14" si="1">(C4+D4+E4)/3</f>
         <v>2753.3333333333335</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="23">
         <f t="shared" ref="I4:I14" si="2">C4+D4+E4/COUNT(C4:E4)</f>
         <v>6526.666666666667</v>
       </c>
@@ -1337,7 +1337,7 @@
         <f t="shared" si="1"/>
         <v>2596.6666666666665</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="23">
         <f t="shared" si="2"/>
         <v>6226.666666666667</v>
       </c>
@@ -1363,7 +1363,7 @@
         <f t="shared" si="1"/>
         <v>2598</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="23">
         <f t="shared" si="2"/>
         <v>6247.333333333333</v>
       </c>
@@ -1389,7 +1389,7 @@
         <f t="shared" si="1"/>
         <v>2720.3333333333335</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="23">
         <f t="shared" si="2"/>
         <v>6494.333333333333</v>
       </c>
@@ -1398,25 +1398,25 @@
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>3098</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>2222.8000000000002</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>2449</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="24">
+      <c r="F8" s="24"/>
+      <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>7769.8</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="23">
         <f t="shared" si="1"/>
         <v>2589.9333333333334</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="23">
         <f t="shared" si="2"/>
         <v>6137.1333333333332</v>
       </c>
@@ -1425,25 +1425,25 @@
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>3058</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>2142.4</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>2461</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="24">
+      <c r="F9" s="24"/>
+      <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>7661.4</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <f t="shared" si="1"/>
         <v>2553.7999999999997</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="23">
         <f t="shared" si="2"/>
         <v>6020.7333333333327</v>
       </c>
@@ -1452,25 +1452,25 @@
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>3018</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>2062</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>2473</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="24">
+      <c r="F10" s="24"/>
+      <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>7553</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <f t="shared" si="1"/>
         <v>2517.6666666666665</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="23">
         <f t="shared" si="2"/>
         <v>5904.333333333333</v>
       </c>
@@ -1479,25 +1479,25 @@
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>2978</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>1981.6</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>2485</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="24">
+      <c r="F11" s="24"/>
+      <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>7444.6</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <f t="shared" si="1"/>
         <v>2481.5333333333333</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="23">
         <f t="shared" si="2"/>
         <v>5787.9333333333334</v>
       </c>
@@ -1506,25 +1506,25 @@
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>2938</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>1901.2</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>2497</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="24">
+      <c r="F12" s="24"/>
+      <c r="G12" s="23">
         <f t="shared" si="0"/>
         <v>7336.2</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="23">
         <f t="shared" si="1"/>
         <v>2445.4</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <f t="shared" si="2"/>
         <v>5671.5333333333328</v>
       </c>
@@ -1533,25 +1533,25 @@
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>2898</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>1820.8</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>2509</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="24">
+      <c r="F13" s="24"/>
+      <c r="G13" s="23">
         <f t="shared" si="0"/>
         <v>7227.8</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <f t="shared" si="1"/>
         <v>2409.2666666666669</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="23">
         <f t="shared" si="2"/>
         <v>5555.1333333333332</v>
       </c>
@@ -1560,38 +1560,38 @@
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>2858</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>1740.4</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>2521</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="24">
+      <c r="F14" s="24"/>
+      <c r="G14" s="23">
         <f t="shared" si="0"/>
         <v>7119.4</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="23">
         <f t="shared" si="1"/>
         <v>2373.1333333333332</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="23">
         <f t="shared" si="2"/>
         <v>5438.7333333333327</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
@@ -1628,35 +1628,35 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <f>SUM(C6:C14)</f>
         <v>27226</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <f>SUM(D6:D14)</f>
         <v>18626.200000000004</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <f>SUM(E6:E14)</f>
         <v>22215</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <f>AVERAGE(C6:C14)</f>
         <v>3025.1111111111113</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <f>AVERAGE(D6:D14)</f>
         <v>2069.5777777777785</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <f>AVERAGE(E6:E14)</f>
         <v>2468.3333333333335</v>
       </c>
@@ -2035,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D037741-DB0B-4F7A-BCC8-8D7F258F0327}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2078,10 +2078,10 @@
         <v>22</v>
       </c>
       <c r="E2" s="13" t="str">
-        <f>LOWER((LEFT(B2,1))&amp;"."&amp;LOWER( SUBSTITUTE(A2," ",""))&amp;"@"&amp;LOWER(MID(D2,1,2))&amp;".azienda.it")</f>
+        <f t="shared" ref="E2:E4" si="0">LOWER((LEFT(B2,1))&amp;LOWER((LEFT(C2,1))&amp;"."&amp;LOWER(SUBSTITUTE(A2," ",""))&amp;"@"&amp;LOWER(MID(D2,1,2))&amp;".azienda.it"))</f>
         <v>l.derossi@ve.azienda.it</v>
       </c>
-      <c r="F2" s="20" t="str">
+      <c r="F2" s="19" t="str">
         <f>B2&amp;" "&amp;A2&amp;CHAR(10)&amp;E2</f>
         <v>Luca De Rossi
 l.derossi@ve.azienda.it</v>
@@ -2099,10 +2099,10 @@
         <v>25</v>
       </c>
       <c r="E3" s="13" t="str">
-        <f t="shared" ref="E3:E12" si="0">LOWER((LEFT(B3,1))&amp;"."&amp;LOWER( SUBSTITUTE(A3," ",""))&amp;"@"&amp;LOWER(MID(D3,1,2))&amp;".azienda.it")</f>
+        <f t="shared" si="0"/>
         <v>f.rossi@vi.azienda.it</v>
       </c>
-      <c r="F3" s="20" t="str">
+      <c r="F3" s="19" t="str">
         <f t="shared" ref="F3:F12" si="1">B3&amp;" "&amp;A3&amp;CHAR(10)&amp;E3</f>
         <v>Francesca Rossi
 f.rossi@vi.azienda.it</v>
@@ -2123,7 +2123,7 @@
         <f t="shared" si="0"/>
         <v>a.bianchi@vi.azienda.it</v>
       </c>
-      <c r="F4" s="20" t="str">
+      <c r="F4" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Anna Bianchi
 a.bianchi@vi.azienda.it</v>
@@ -2143,13 +2143,13 @@
         <v>22</v>
       </c>
       <c r="E5" s="13" t="str">
-        <f>LOWER((LEFT(B5,1))&amp;"."&amp;LOWER((LEFT(C5,1))&amp;"."&amp;LOWER(SUBSTITUTE(A5," ",""))&amp;"@"&amp;LOWER(MID(D5,1,2))&amp;".azienda.it"))</f>
-        <v>m.l.verdi@ve.azienda.it</v>
-      </c>
-      <c r="F5" s="20" t="str">
+        <f>LOWER((LEFT(B5,1))&amp;LOWER((LEFT(C5,1))&amp;"."&amp;LOWER(SUBSTITUTE(A5," ",""))&amp;"@"&amp;LOWER(MID(D5,1,2))&amp;".azienda.it"))</f>
+        <v>ml.verdi@ve.azienda.it</v>
+      </c>
+      <c r="F5" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Maria Verdi
-m.l.verdi@ve.azienda.it</v>
+ml.verdi@ve.azienda.it</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -2164,10 +2164,10 @@
         <v>25</v>
       </c>
       <c r="E6" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E6:E12" si="2">LOWER((LEFT(B6,1))&amp;LOWER((LEFT(C6,1))&amp;"."&amp;LOWER(SUBSTITUTE(A6," ",""))&amp;"@"&amp;LOWER(MID(D6,1,2))&amp;".azienda.it"))</f>
         <v>s.neri@vi.azienda.it</v>
       </c>
-      <c r="F6" s="20" t="str">
+      <c r="F6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Stefani Neri
 s.neri@vi.azienda.it</v>
@@ -2185,10 +2185,10 @@
         <v>22</v>
       </c>
       <c r="E7" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>a.rosa@ve.azienda.it</v>
       </c>
-      <c r="F7" s="20" t="str">
+      <c r="F7" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Andre Rosa
 a.rosa@ve.azienda.it</v>
@@ -2206,10 +2206,10 @@
         <v>25</v>
       </c>
       <c r="E8" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>f.derosa@vi.azienda.it</v>
       </c>
-      <c r="F8" s="20" t="str">
+      <c r="F8" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Federica De Rosa
 f.derosa@vi.azienda.it</v>
@@ -2227,10 +2227,10 @@
         <v>22</v>
       </c>
       <c r="E9" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>p.verdini@ve.azienda.it</v>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Paolo Verdini
 p.verdini@ve.azienda.it</v>
@@ -2248,10 +2248,10 @@
         <v>22</v>
       </c>
       <c r="E10" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>l.rossini@ve.azienda.it</v>
       </c>
-      <c r="F10" s="20" t="str">
+      <c r="F10" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Loretta Rossini
 l.rossini@ve.azienda.it</v>
@@ -2269,10 +2269,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>a.bianconi@ve.azienda.it</v>
       </c>
-      <c r="F11" s="20" t="str">
+      <c r="F11" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Antonio Bianconi
 a.bianconi@ve.azienda.it</v>
@@ -2290,10 +2290,10 @@
         <v>52</v>
       </c>
       <c r="E12" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>s.neli@mi.azienda.it</v>
       </c>
-      <c r="F12" s="20" t="str">
+      <c r="F12" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Staykova Neli
 s.neli@mi.azienda.it</v>
